--- a/src/main/java/com/data/Source_File.xlsx
+++ b/src/main/java/com/data/Source_File.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11700"/>
+    <workbookView windowWidth="28800" windowHeight="14120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Firstname</t>
   </si>
@@ -41,6 +42,210 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Scenario No</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Test Case No</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Login Positive Scenario</t>
+  </si>
+  <si>
+    <t>S1TC001</t>
+  </si>
+  <si>
+    <t>User Should be able to login using correct credentials</t>
+  </si>
+  <si>
+    <t>Navigate to : https://opensource-demo.orangehrmlive.com/index.php/admin/viewSystemUsers</t>
+  </si>
+  <si>
+    <t>User should see Orange HRM website logo</t>
+  </si>
+  <si>
+    <t>Input correct username to "Username" text box</t>
+  </si>
+  <si>
+    <t>User should be able to enter the username</t>
+  </si>
+  <si>
+    <t>Input correct password to "Password" text box</t>
+  </si>
+  <si>
+    <t>User should be able to enter the password</t>
+  </si>
+  <si>
+    <t>Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>User should see the "Check your passwords" popup</t>
+  </si>
+  <si>
+    <t>Click "Close" button</t>
+  </si>
+  <si>
+    <t>Popup should be closed, user should land on "Dashboard" tab</t>
+  </si>
+  <si>
+    <t>click "Welcome Paul" link at the right top corener of the page</t>
+  </si>
+  <si>
+    <t>"About" and "Logout" options should be available in the dropdown</t>
+  </si>
+  <si>
+    <t>click "Logout" button</t>
+  </si>
+  <si>
+    <t>User should land on login page and the Orange HRM website logo should be seen</t>
+  </si>
+  <si>
+    <t>S1TC002</t>
+  </si>
+  <si>
+    <t>User should see success message when putting the valid username while resetting the password</t>
+  </si>
+  <si>
+    <t>click "Forgot your password?" link</t>
+  </si>
+  <si>
+    <t>User should see Orange HRM website logo, and header "Forgot Your Password?", text "Please enter your username to identify your account to reset your password."</t>
+  </si>
+  <si>
+    <t>input valid username into "OrangeHRM Username" input box</t>
+  </si>
+  <si>
+    <t>User should be able to input valid username</t>
+  </si>
+  <si>
+    <t>click "Reset Password" button</t>
+  </si>
+  <si>
+    <t>User should see header "Instruction Sent !",
+success message"Instructions for resetting your password have been sent to paul1@osohrm.com"</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Login Negative Scenario</t>
+  </si>
+  <si>
+    <t>S2TC001</t>
+  </si>
+  <si>
+    <t>User should receive error message when using correct username and wrong password</t>
+  </si>
+  <si>
+    <t>Input CORRECT username to "Username" text box</t>
+  </si>
+  <si>
+    <t>Input WRONG password to "Password" text box</t>
+  </si>
+  <si>
+    <t>User should see the "Invalid credentials" error message</t>
+  </si>
+  <si>
+    <t>S2TC002</t>
+  </si>
+  <si>
+    <t>User should receive error message when using wrong username and correct password</t>
+  </si>
+  <si>
+    <t>Input WRONG username to "Username" text box</t>
+  </si>
+  <si>
+    <t>Input CORRECT password to "Password" text box</t>
+  </si>
+  <si>
+    <t>S2TC003</t>
+  </si>
+  <si>
+    <t>User should receive error message when putting the correct password and leaving the username empty</t>
+  </si>
+  <si>
+    <t>User should see the "Username cannot be empty" error message</t>
+  </si>
+  <si>
+    <t>S2TC004</t>
+  </si>
+  <si>
+    <t>User should receive error message when putting the correct username and leaving the password empty</t>
+  </si>
+  <si>
+    <t>User should see the "Password cannot be empty" error message</t>
+  </si>
+  <si>
+    <t>S2TC005</t>
+  </si>
+  <si>
+    <t>User should reveive error message when leaving the "OrangeHRM Username" input box empity while resetting the password</t>
+  </si>
+  <si>
+    <t>User should see "Could not find a user with given details" error message</t>
+  </si>
+  <si>
+    <t>S2TC006</t>
+  </si>
+  <si>
+    <t>User should reveive error message when inputting special characters/ WRONG usernme in the "OrangeHRM Username" input box while resetting the password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input special characters in the "OrangeHRM Username" input box </t>
+  </si>
+  <si>
+    <t>User should be able to enter special characters</t>
+  </si>
+  <si>
+    <t>User should see "Please contact HR admin in order to reset the password " error message</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Login page text validation</t>
+  </si>
+  <si>
+    <t>S3TC001</t>
+  </si>
+  <si>
+    <t>User should see all texts and links in the login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should see texts and links:
+"( Username : Admin | Password : admin123 )",
+"LOGIN Panel",
+"Forgot your password?",
+"OrangeHRM 4.7
+© 2005 - 2021 OrangeHRM, Inc. All rights reserved."
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    </t>
   </si>
 </sst>
 </file>
@@ -48,14 +253,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -70,8 +283,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,7 +368,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -101,7 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,19 +389,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,45 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,29 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -229,6 +442,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,37 +478,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,43 +556,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,79 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +633,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,15 +690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -477,27 +705,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,9 +725,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,156 +738,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -998,8 +1232,8 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1008,31 +1242,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1040,4 +1274,534 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.9375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.125" customWidth="1"/>
+    <col min="5" max="5" width="40.1875" customWidth="1"/>
+    <col min="6" max="6" width="37.9375" customWidth="1"/>
+    <col min="7" max="7" width="12.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="42" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="56" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="56" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="42" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="42" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="42" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="28" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" ht="42" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="56" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" ht="42" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="56" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" ht="28" spans="1:6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" ht="112" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" ht="28" spans="4:4">
+      <c r="D38" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" ht="42" spans="4:4">
+      <c r="D40" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A33"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D33"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>